--- a/Excel/Monster_Classes.xlsx
+++ b/Excel/Monster_Classes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piercson\Desktop\Coding\Python\Monster Hunter\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6B705E-1F9A-4FDA-9A35-E6C60E4E646C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3CAF6-8A46-47D3-8F36-E752717A67E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{205086EC-303B-46A4-A91F-83910B298FE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="468">
   <si>
     <t>Melynx</t>
   </si>
@@ -1419,9 +1419,6 @@
     <t>Large</t>
   </si>
   <si>
-    <t>BoaBoa</t>
-  </si>
-  <si>
     <t>Gajalaka</t>
   </si>
   <si>
@@ -1438,6 +1435,9 @@
   </si>
   <si>
     <t>Narwa the Allmother</t>
+  </si>
+  <si>
+    <t>Boaboa</t>
   </si>
 </sst>
 </file>
@@ -1789,10 +1789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D71E2CE-6E66-43AC-B2A2-F5854DF3882F}">
-  <dimension ref="A1:C455"/>
+  <dimension ref="A1:C456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="E223" sqref="E223"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B64" t="s">
         <v>3</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B150" t="s">
         <v>3</v>
@@ -4377,13 +4377,13 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B235" t="s">
         <v>3</v>
       </c>
       <c r="C235" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B350" t="s">
         <v>3</v>
@@ -6775,7 +6775,7 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B453" t="s">
         <v>37</v>
@@ -6786,7 +6786,7 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B454" t="s">
         <v>39</v>
@@ -6797,13 +6797,24 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B455" t="s">
         <v>39</v>
       </c>
       <c r="C455" t="s">
         <v>460</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>6</v>
+      </c>
+      <c r="B456" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Monster_Classes.xlsx
+++ b/Excel/Monster_Classes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piercson\Desktop\Coding\Python\Monster Hunter\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D3CAF6-8A46-47D3-8F36-E752717A67E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C248E8B4-14F3-4A1C-A30B-0E074DBCB3CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{205086EC-303B-46A4-A91F-83910B298FE3}"/>
+    <workbookView xWindow="-14535" yWindow="720" windowWidth="12150" windowHeight="11385" xr2:uid="{205086EC-303B-46A4-A91F-83910B298FE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1791,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D71E2CE-6E66-43AC-B2A2-F5854DF3882F}">
   <dimension ref="A1:C456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3305,7 +3305,7 @@
         <v>3</v>
       </c>
       <c r="C137" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
